--- a/Consegna S1-L5.xlsx
+++ b/Consegna S1-L5.xlsx
@@ -1364,26 +1364,26 @@
         <v>73</v>
       </c>
       <c r="F60" s="2">
-        <v>120.0</v>
+        <v>240.0</v>
       </c>
       <c r="G60" s="31">
         <v>1000.0</v>
       </c>
       <c r="H60" s="32">
         <f t="shared" ref="H60:H65" si="2">F60*G60</f>
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="I60" s="32">
         <f t="shared" ref="I60:K60" si="1">H60</f>
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="J60" s="32">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="K60" s="33">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="61">
@@ -1608,15 +1608,15 @@
       <c r="H71" s="36"/>
       <c r="I71" s="37">
         <f t="shared" ref="I71:K71" si="7">SUM(I60:I69)</f>
-        <v>132353.5</v>
+        <v>252353.5</v>
       </c>
       <c r="J71" s="37">
         <f t="shared" si="7"/>
-        <v>133067.94</v>
+        <v>253067.94</v>
       </c>
       <c r="K71" s="38">
         <f t="shared" si="7"/>
-        <v>135168.5</v>
+        <v>255168.5</v>
       </c>
     </row>
   </sheetData>

--- a/Consegna S1-L5.xlsx
+++ b/Consegna S1-L5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
   <si>
     <t>Progetto per Michele's Corporate</t>
   </si>
@@ -37,10 +37,13 @@
     <t>il collegamento a entrambe le interfacce. L'opzione 3 risulta essere quella più consigliata dal punto di vista di compatibilità e di costi-benefici.</t>
   </si>
   <si>
-    <t>La rete è stata sviluppata con l'esigenza di avere un numero di dispositivi host compreso tra i 250 e i 500, per questo è stata scelta la subnet musk 255.255.254.0, sono state quindi sviluppate due sottoreti</t>
-  </si>
-  <si>
-    <t>con ip network 192.168.0.0 e 192.168.2.0. Le due sottoreti comunicano tramite cavo ethernet oppure tramite bridge in base alla scelta finale del cliente.</t>
+    <t>La rete è stata sviluppata con l'esigenza di frammentare il più possibile l'architettura della rete stessa in modo tale che risulti il più diffiicile possibile da ricostruire dal punto di vista del black hat</t>
+  </si>
+  <si>
+    <t>Successivamente sono state sviluppate 8 sottoreti.</t>
+  </si>
+  <si>
+    <t>L'esigenza dell'azienda era quella di collegare due edifici separati ma comunque vicini, la soluzione migliore è quella di impostare due access point in modaltà bridge.</t>
   </si>
   <si>
     <t>Piano 4</t>
@@ -49,16 +52,16 @@
     <t>Dispositivi hardware:</t>
   </si>
   <si>
-    <t>nr.30 computer con indirizzi ip da 192.168.0.92/23 a 192.168.0.121/23</t>
-  </si>
-  <si>
-    <t>nr.30 computer con indirizzi ip da 192.168.2.92/23 a 192.168.2.121/23</t>
-  </si>
-  <si>
-    <t>nr.2 access point con indirizzi: 192.168.0.206/23 e 192.168.0.207/23</t>
-  </si>
-  <si>
-    <t>nr.2 access point con indirizzi: 192.168.2.206/23 e 192.168.2.207/23</t>
+    <t>nr.30 computer con indirizzi ip da 192.168.6.2/23 a 192.168.6.31/23</t>
+  </si>
+  <si>
+    <t>nr.30 computer con indirizzi ip da 192.168.14.2/23 a 192.168.14.31/23</t>
+  </si>
+  <si>
+    <t>nr.2 access point con indirizzi: 192.168.6.200/23 e 192.168.6.201/23</t>
+  </si>
+  <si>
+    <t>nr.2 access point con indirizzi: 192.168.14.200/23 e 192.168.14.200/23</t>
   </si>
   <si>
     <t>nr.1 switch per connessioni ethernet (Opzionale)</t>
@@ -67,31 +70,31 @@
     <t>Piano 3</t>
   </si>
   <si>
-    <t>nr.30 computer con indirizzi ip da 192.168.0.62/23 a 192.168.0.91/23</t>
-  </si>
-  <si>
-    <t>nr.30 computer con indirizzi ip da 192.168.2.62/23 a 192.168.2.91/23</t>
-  </si>
-  <si>
-    <t>nr.2 access point con indirizzi: 192.168.0.204/23 e 192.168.0.205/23</t>
-  </si>
-  <si>
-    <t>nr.2 access point con indirizzi: 192.168.2.204/23 e 192.168.2.205/23</t>
+    <t>nr.30 computer con indirizzi ip da 192.168.4.2/23 a 192.168.4.31/23</t>
+  </si>
+  <si>
+    <t>nr.30 computer con indirizzi ip da 192.168.12.2/23 a 192.168.12.31/23</t>
+  </si>
+  <si>
+    <t>nr.2 access point con indirizzi: 192.168.4.200/23 e 192.168.4.201/23</t>
+  </si>
+  <si>
+    <t>nr.2 access point con indirizzi: 192.168.12.200/23 e 192.168.12.200/23</t>
   </si>
   <si>
     <t>Piano 2</t>
   </si>
   <si>
-    <t>nr.30 computer con indirizzi ip da 192.168.0.32/23 a 192.168.0.61/23</t>
-  </si>
-  <si>
-    <t>nr.30 computer con indirizzi ip da 192.168.2.32/23 a 192.168.2.61/23</t>
-  </si>
-  <si>
-    <t>nr.2 access point con indirizzi: 192.168.0.202/23 e 192.168.0.203/23</t>
-  </si>
-  <si>
-    <t>nr.2 access point con indirizzi: 192.168.2.202/23 e 192.168.2.203/23</t>
+    <t>nr.30 computer con indirizzi ip da 192.168.2.2/23 a 192.168.2.31/23</t>
+  </si>
+  <si>
+    <t>nr.30 computer con indirizzi ip da 192.168.10.2/23 a 192.168.10.31/23</t>
+  </si>
+  <si>
+    <t>nr.2 access point con indirizzi: 192.168.2.200/23 e 192.168.2.201/23</t>
+  </si>
+  <si>
+    <t>nr.2 access point con indirizzi: 192.168.10.200/23 e 192.168.10.200/23</t>
   </si>
   <si>
     <t>Piano 1</t>
@@ -112,16 +115,16 @@
     <t>192.168.0.215</t>
   </si>
   <si>
-    <t>192.168.2.215</t>
-  </si>
-  <si>
-    <t>nr.30 computer con indirizzi ip da 192.168.2.2/23 a 192.168.2.31/23</t>
+    <t>192.168.8.215</t>
+  </si>
+  <si>
+    <t>nr.30 computer con indirizzi ip da 192.168.8.2/23 a 192.168.8.31/23</t>
   </si>
   <si>
     <t>nr.2 access point con indirizzi: 192.168.0.200/23 e 192.168.0.201/23</t>
   </si>
   <si>
-    <t>nr.2 access point con indirizzi: 192.168.2.200/23 e 192.168.2.200/23</t>
+    <t>nr.2 access point con indirizzi: 192.168.8.200/23 e 192.168.8.200/23</t>
   </si>
   <si>
     <t xml:space="preserve">nr.1 switch </t>
@@ -136,7 +139,10 @@
     <t>nr. ponte radio (Opzionale)</t>
   </si>
   <si>
-    <t>Tabella di rete</t>
+    <t>Tabella di rete primo edificio</t>
+  </si>
+  <si>
+    <t>Tabella di rete secondo edificio</t>
   </si>
   <si>
     <t xml:space="preserve">Ip Network </t>
@@ -145,70 +151,139 @@
     <t>192.168.0.0/23</t>
   </si>
   <si>
-    <t xml:space="preserve">Ip Subnet </t>
+    <t>192.168.8.0/23</t>
+  </si>
+  <si>
+    <t>Ip Gateway</t>
+  </si>
+  <si>
+    <t>192.168.0.1/23</t>
+  </si>
+  <si>
+    <t>192.168.8.1/23</t>
+  </si>
+  <si>
+    <t>Ip for host</t>
+  </si>
+  <si>
+    <t>192.168.0.2 /23-192.168.0.254/23</t>
+  </si>
+  <si>
+    <t>192.168.8.2 /23-192.168.8.254/23</t>
+  </si>
+  <si>
+    <t>Ip broadcast</t>
+  </si>
+  <si>
+    <t>192.168.0.255/23</t>
+  </si>
+  <si>
+    <t>192.168.8.255/23</t>
+  </si>
+  <si>
+    <t>Subnet mask</t>
+  </si>
+  <si>
+    <t>255.255.254.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access point </t>
+  </si>
+  <si>
+    <t>192.168.0.200/23 e 192.168.0.201/23</t>
+  </si>
+  <si>
+    <t>192.168.8.200/23 e 192.168.8.201/23</t>
   </si>
   <si>
     <t>192.168.2.0/23</t>
   </si>
   <si>
-    <t>Ip Gateway 1</t>
-  </si>
-  <si>
-    <t>192.168.0.1/23</t>
-  </si>
-  <si>
-    <t>Ip Gateway 2</t>
+    <t>192.168.10.0/23</t>
   </si>
   <si>
     <t>192.168.2.1/23</t>
   </si>
   <si>
-    <t>Ip for host 1</t>
-  </si>
-  <si>
-    <t>192.168.0.2-254/23</t>
-  </si>
-  <si>
-    <t>Ip for host 2</t>
-  </si>
-  <si>
-    <t>192.168.2.2-254/23</t>
-  </si>
-  <si>
-    <t>Ip broadcast 1</t>
-  </si>
-  <si>
-    <t>192.168.1.255</t>
-  </si>
-  <si>
-    <t>Ip broadcast 2</t>
-  </si>
-  <si>
-    <t>192.168.3.255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subnet mask </t>
-  </si>
-  <si>
-    <t>255.255.254.0</t>
-  </si>
-  <si>
-    <t>Access point Network 1</t>
-  </si>
-  <si>
-    <t>Da 192.168.0.200/23 a 192.168.0.207/23</t>
-  </si>
-  <si>
-    <t>Access point Subnet 1</t>
-  </si>
-  <si>
-    <t>Da 192.168.2.200/23 a 192.168.2.207/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access point bridge </t>
-  </si>
-  <si>
-    <t>192.168.0.215/23 e 192.168.2.215/23</t>
+    <t>192.168.10.1/23</t>
+  </si>
+  <si>
+    <t>192.168.2.2 /23-192.168.2.254/23</t>
+  </si>
+  <si>
+    <t>192.168.10.2 /23-192.168.10.254/23</t>
+  </si>
+  <si>
+    <t>192.168.2.255/23</t>
+  </si>
+  <si>
+    <t>192.168.10.255/23</t>
+  </si>
+  <si>
+    <t>192.168.2.200/23 e 192.168.2.201/23</t>
+  </si>
+  <si>
+    <t>192.168.10.200/23 e 192.168.10.201/23</t>
+  </si>
+  <si>
+    <t>192.168.4.0/23</t>
+  </si>
+  <si>
+    <t>192.168.12.0/23</t>
+  </si>
+  <si>
+    <t>192.168.4.1/23</t>
+  </si>
+  <si>
+    <t>192.168.12.1/23</t>
+  </si>
+  <si>
+    <t>192.168.4.2 /23-192.168.4.254/23</t>
+  </si>
+  <si>
+    <t>192.168.12.2 /23-192.168.12.254/23</t>
+  </si>
+  <si>
+    <t>192.168.4.255/23</t>
+  </si>
+  <si>
+    <t>192.168.12.255/23</t>
+  </si>
+  <si>
+    <t>192.168.4.200/23 e 192.168.4.201/23</t>
+  </si>
+  <si>
+    <t>192.168.12.200/23 e 192.168.12.201/23</t>
+  </si>
+  <si>
+    <t>192.168.6.0/23</t>
+  </si>
+  <si>
+    <t>192.168.14.0/23</t>
+  </si>
+  <si>
+    <t>192.168.6.1/23</t>
+  </si>
+  <si>
+    <t>192.168.14.1/23</t>
+  </si>
+  <si>
+    <t>192.168.6.2 /23-192.168.6.254/23</t>
+  </si>
+  <si>
+    <t>192.168.14.2 /23-192.168.14.254/23</t>
+  </si>
+  <si>
+    <t>192.168.6.255/23</t>
+  </si>
+  <si>
+    <t>192.168.14.255/23</t>
+  </si>
+  <si>
+    <t>192.168.6.200/23 e 192.168.6.201/23</t>
+  </si>
+  <si>
+    <t>192.168.14.200/23 e 192.168.14.201/23</t>
   </si>
   <si>
     <t xml:space="preserve">Descrizione </t>
@@ -241,12 +316,6 @@
     <t>CISCO SYSTEMS Wireless Access Point Cisco Aironet 1142N IEEE 802.11n 300 Mbps</t>
   </si>
   <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>CISCO SYSTEMS Ethernet Switch Cisco Catalyst 3750-24TS</t>
-  </si>
-  <si>
     <t>Switch Desktop</t>
   </si>
   <si>
@@ -268,7 +337,7 @@
     <t>Scavo per posa del cavo</t>
   </si>
   <si>
-    <t>Consulena Sistemistica e installazioe degli apparati</t>
+    <t>Consulenza Sistemistica e installazione degli apparati</t>
   </si>
 </sst>
 </file>
@@ -330,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -349,6 +418,38 @@
       </top>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -357,54 +458,17 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -440,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -460,63 +524,59 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -524,16 +584,16 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -756,7 +816,10 @@
     <col customWidth="1" min="5" max="5" width="18.38"/>
     <col customWidth="1" min="6" max="6" width="7.13"/>
     <col customWidth="1" min="7" max="7" width="16.63"/>
-    <col customWidth="1" min="8" max="8" width="11.0"/>
+    <col customWidth="1" min="8" max="8" width="12.88"/>
+    <col customWidth="1" min="9" max="9" width="24.88"/>
+    <col customWidth="1" min="10" max="10" width="32.88"/>
+    <col customWidth="1" min="11" max="11" width="30.5"/>
     <col customWidth="1" min="13" max="13" width="14.38"/>
   </cols>
   <sheetData>
@@ -836,787 +899,1056 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15">
+      <c r="B15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="I16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="6"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="I17" s="8" t="s">
+      <c r="C17" s="6"/>
+      <c r="I17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="9"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="I18" s="8" t="s">
+      <c r="C18" s="8"/>
+      <c r="I18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8"/>
+      <c r="I19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="I19" s="8" t="s">
+      <c r="J19" s="8"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8"/>
+      <c r="I20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="I20" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="J20" s="8"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="10"/>
     </row>
     <row r="21">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
+      <c r="B21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="I21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="I23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="I24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="I25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="I26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="I22" s="5" t="s">
+      <c r="C27" s="8"/>
+      <c r="I27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="I23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="I24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="I25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="I26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="17"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="12"/>
+      <c r="J27" s="8"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28">
-      <c r="B28" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="16"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="I28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="6"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29">
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="9"/>
+      <c r="B29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="12"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="I29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="9"/>
+      <c r="I29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="6"/>
     </row>
     <row r="30">
-      <c r="B30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="9"/>
+      <c r="B30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="I32" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="I32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="8"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="10"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33">
-      <c r="B33" s="17"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="I33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="8"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="10"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34">
-      <c r="B34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="6"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="21" t="s">
+      <c r="C35" s="6"/>
+      <c r="F35" s="3"/>
+      <c r="I35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="21" t="s">
+      <c r="J35" s="6"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="8" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="22" t="s">
+      <c r="I36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="22" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="10"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="8" t="s">
+      <c r="I37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="F37" s="3"/>
-      <c r="I37" s="8" t="s">
+      <c r="J37" s="8"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="10"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="C38" s="8"/>
       <c r="F38" s="3"/>
-      <c r="I38" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="I38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="8"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="9"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39">
-      <c r="B39" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="10"/>
+      <c r="B39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="I39" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="I39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="8"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="9"/>
     </row>
     <row r="40">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="2"/>
-      <c r="I40" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="3"/>
+      <c r="I40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="16"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="9"/>
     </row>
     <row r="41">
-      <c r="B41" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="14"/>
+      <c r="B41" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="16"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="2"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="12"/>
+      <c r="I41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42">
+      <c r="B42" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43">
-      <c r="B43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="6"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="6"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="I44" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="J44" s="6"/>
     </row>
     <row r="45">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="I45" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C46" s="22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="8" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="I46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="25" t="s">
+    </row>
+    <row r="47">
+      <c r="B47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
     </row>
     <row r="48">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
     <row r="49">
-      <c r="B49" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="25" t="s">
+      <c r="B49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="C49" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
     <row r="50">
-      <c r="B50" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>55</v>
+      <c r="B50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
     <row r="51">
-      <c r="B51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>57</v>
+      <c r="B51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
     <row r="52">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="I52" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="I54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="I55" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="I56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="20"/>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>65</v>
+      <c r="C58" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I59" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="J59" s="29" t="s">
+      <c r="B59" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="I59" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K59" s="30" t="s">
+      <c r="I60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60">
-      <c r="B60" s="8" t="s">
+    <row r="61">
+      <c r="B61" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="2">
+      <c r="I61" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="I66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J72" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K77" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78" s="2">
         <v>240.0</v>
       </c>
-      <c r="G60" s="31">
+      <c r="G78" s="29">
         <v>1000.0</v>
       </c>
-      <c r="H60" s="32">
-        <f t="shared" ref="H60:H65" si="2">F60*G60</f>
+      <c r="H78" s="30">
+        <f t="shared" ref="H78:H82" si="2">F78*G78</f>
         <v>240000</v>
       </c>
-      <c r="I60" s="32">
-        <f t="shared" ref="I60:K60" si="1">H60</f>
+      <c r="I78" s="30">
+        <f t="shared" ref="I78:K78" si="1">H78</f>
         <v>240000</v>
       </c>
-      <c r="J60" s="32">
+      <c r="J78" s="30">
         <f t="shared" si="1"/>
         <v>240000</v>
       </c>
-      <c r="K60" s="33">
+      <c r="K78" s="31">
         <f t="shared" si="1"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="2">
+    <row r="79">
+      <c r="B79" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="2">
         <v>18.0</v>
       </c>
-      <c r="G61" s="31">
+      <c r="G79" s="29">
         <v>262.0</v>
       </c>
-      <c r="H61" s="32">
+      <c r="H79" s="30">
         <f t="shared" si="2"/>
         <v>4716</v>
       </c>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32">
-        <f>G61*F61</f>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30">
+        <f>G79*F79</f>
         <v>4716</v>
       </c>
-      <c r="K61" s="33">
-        <f>J61</f>
+      <c r="K79" s="31">
+        <f>J79</f>
         <v>4716</v>
       </c>
     </row>
-    <row r="62">
-      <c r="B62" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G62" s="31">
-        <v>1259.97</v>
-      </c>
-      <c r="H62" s="32">
-        <f t="shared" si="2"/>
-        <v>2519.94</v>
-      </c>
-      <c r="I62" s="32">
-        <f t="shared" ref="I62:J62" si="3">H62</f>
-        <v>2519.94</v>
-      </c>
-      <c r="J62" s="32">
-        <f t="shared" si="3"/>
-        <v>2519.94</v>
-      </c>
-      <c r="K62" s="33">
-        <f t="shared" ref="K62:K63" si="4">I62</f>
-        <v>2519.94</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" s="2">
+    <row r="80">
+      <c r="B80" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="2">
         <v>8.0</v>
       </c>
-      <c r="G63" s="31">
+      <c r="G80" s="29">
         <v>147.57</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H80" s="30">
         <f t="shared" si="2"/>
         <v>1180.56</v>
       </c>
-      <c r="I63" s="32">
-        <f t="shared" ref="I63:I64" si="5">H63</f>
+      <c r="I80" s="30">
+        <f t="shared" ref="I80:I81" si="3">H80</f>
         <v>1180.56</v>
       </c>
-      <c r="J63" s="32"/>
-      <c r="K63" s="33">
-        <f t="shared" si="4"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="31">
+        <f>I80</f>
         <v>1180.56</v>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="2">
+    <row r="81">
+      <c r="B81" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="2">
         <v>1.0</v>
       </c>
-      <c r="G64" s="31">
+      <c r="G81" s="29">
         <v>1233.0</v>
       </c>
-      <c r="H64" s="32">
+      <c r="H81" s="30">
         <f t="shared" si="2"/>
         <v>1233</v>
       </c>
-      <c r="I64" s="32">
-        <f t="shared" si="5"/>
+      <c r="I81" s="30">
+        <f t="shared" si="3"/>
         <v>1233</v>
       </c>
-      <c r="J64" s="32">
-        <f t="shared" ref="J64:K64" si="6">I64</f>
+      <c r="J81" s="30">
+        <f t="shared" ref="J81:K81" si="4">I81</f>
         <v>1233</v>
       </c>
-      <c r="K64" s="33">
-        <f t="shared" si="6"/>
+      <c r="K81" s="31">
+        <f t="shared" si="4"/>
         <v>1233</v>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="2">
+    <row r="82">
+      <c r="B82" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F82" s="2">
         <v>2.0</v>
       </c>
-      <c r="G65" s="31">
+      <c r="G82" s="29">
         <v>262.0</v>
       </c>
-      <c r="H65" s="32">
+      <c r="H82" s="30">
         <f t="shared" si="2"/>
         <v>524</v>
       </c>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32">
-        <f>H65</f>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30">
+        <f>H82</f>
         <v>524</v>
       </c>
-      <c r="K65" s="33">
-        <f>J65</f>
+      <c r="K82" s="31">
+        <f>J82</f>
         <v>524</v>
       </c>
     </row>
-    <row r="66">
-      <c r="B66" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="31">
+    <row r="83">
+      <c r="B83" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G83" s="29">
         <v>2.3</v>
       </c>
-      <c r="H66" s="32"/>
-      <c r="I66" s="31">
-        <f>G66*400</f>
+      <c r="H83" s="30"/>
+      <c r="I83" s="29">
+        <f>G83*400</f>
         <v>920</v>
       </c>
-      <c r="J66" s="31">
-        <f>G66*250</f>
+      <c r="J83" s="29">
+        <f>G83*250</f>
         <v>575</v>
       </c>
-      <c r="K66" s="33">
-        <f>J66+I66</f>
+      <c r="K83" s="31">
+        <f>J83+I83</f>
         <v>1495</v>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" s="31">
+    <row r="84">
+      <c r="B84" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" s="29">
         <v>3000.0</v>
       </c>
-      <c r="H67" s="32"/>
-      <c r="I67" s="31">
+      <c r="H84" s="30"/>
+      <c r="I84" s="29">
         <v>3000.0</v>
       </c>
-      <c r="J67" s="31"/>
-      <c r="K67" s="33"/>
-    </row>
-    <row r="68">
-      <c r="B68" s="20"/>
-      <c r="K68" s="9"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="J84" s="29"/>
+      <c r="K84" s="31"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="15"/>
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" s="2">
         <v>70.0</v>
       </c>
-      <c r="G69" s="31">
+      <c r="G86" s="29">
         <v>50.0</v>
       </c>
-      <c r="H69" s="32">
-        <f>F69*G69</f>
+      <c r="H86" s="30">
+        <f>F86*G86</f>
         <v>3500</v>
       </c>
-      <c r="I69" s="32">
-        <f>H69</f>
+      <c r="I86" s="30">
+        <f>H86</f>
         <v>3500</v>
       </c>
-      <c r="J69" s="31">
+      <c r="J86" s="29">
         <v>3500.0</v>
       </c>
-      <c r="K69" s="33">
-        <f>J69</f>
+      <c r="K86" s="31">
+        <f>J86</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="70">
-      <c r="B70" s="20"/>
-      <c r="K70" s="9"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="37">
-        <f t="shared" ref="I71:K71" si="7">SUM(I60:I69)</f>
-        <v>252353.5</v>
-      </c>
-      <c r="J71" s="37">
-        <f t="shared" si="7"/>
-        <v>253067.94</v>
-      </c>
-      <c r="K71" s="38">
-        <f t="shared" si="7"/>
-        <v>255168.5</v>
+    <row r="87">
+      <c r="B87" s="15"/>
+      <c r="K87" s="8"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="35">
+        <f t="shared" ref="I88:K88" si="5">SUM(I78:I86)</f>
+        <v>249833.56</v>
+      </c>
+      <c r="J88" s="35">
+        <f t="shared" si="5"/>
+        <v>250548</v>
+      </c>
+      <c r="K88" s="36">
+        <f t="shared" si="5"/>
+        <v>252648.56</v>
       </c>
     </row>
   </sheetData>
